--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,10 +417,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,53 +448,74 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -492,45 +523,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +858,7 @@
     <col min="8" max="8" width="3.7109375" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -875,143 +881,143 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="5" t="s">
+      <c r="K1" s="26"/>
+      <c r="L1" s="54" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="27">
         <v>4</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="22"/>
+      <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="47" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="47" t="s">
+      <c r="K4" s="20"/>
+      <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="37">
         <v>4</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="47" t="s">
+      <c r="K5" s="38"/>
+      <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="30"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="27"/>
-      <c r="L6" s="47" t="s">
+      <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="47" t="s">
+      <c r="J7" s="34"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="27" t="s">
@@ -1020,14 +1026,14 @@
       <c r="C8" s="27">
         <v>4</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -1039,16 +1045,16 @@
       <c r="K8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1058,83 +1064,83 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="39">
         <v>4</v>
       </c>
       <c r="K9" s="27">
         <v>4</v>
       </c>
-      <c r="L9" s="47" t="s">
+      <c r="L9" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="47" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="30"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="47" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="52" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1154,7 +1160,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="50">
+      <c r="A18" s="17">
         <v>4</v>
       </c>
       <c r="B18" t="s">
@@ -1162,7 +1168,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
@@ -1170,7 +1176,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B20" t="s">
@@ -1178,7 +1184,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B21" t="s">
@@ -1186,7 +1192,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
@@ -1194,7 +1200,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B23" t="s">
@@ -1202,7 +1208,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="18" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
@@ -1210,7 +1216,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="18" t="s">
         <v>42</v>
       </c>
       <c r="B25" t="s">
@@ -1218,13 +1224,13 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="18"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="18"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="18" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
@@ -1232,7 +1238,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
@@ -1240,7 +1246,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B30" t="s">
@@ -1248,7 +1254,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
@@ -1256,7 +1262,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B32" t="s">
@@ -1264,7 +1270,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="51" t="s">
+      <c r="A33" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B33" t="s">
@@ -1272,7 +1278,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B34" t="s">
@@ -1280,7 +1286,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B35" t="s">
@@ -1288,7 +1294,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B36" t="s">
@@ -1296,7 +1302,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B37" t="s">
@@ -1305,6 +1311,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="A10:A11"/>
@@ -1321,34 +1355,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1359,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,126 +1393,126 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="49"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="27"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="41"/>
-      <c r="G2" s="47" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="46"/>
+      <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="46" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="47" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="46"/>
+      <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="46" t="s">
+      <c r="I3" s="20"/>
+      <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="27"/>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="27"/>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="46" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="29"/>
-      <c r="G5" s="47" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="28"/>
+      <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="43">
         <v>4</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46" t="s">
+      <c r="I5" s="44"/>
+      <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="31"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="47"/>
+      <c r="E8" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="39"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1569,16 +1575,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1586,13 +1589,16 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -433,6 +433,60 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,52 +508,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,30 +537,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,153 +881,153 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="54" t="s">
+      <c r="K1" s="44"/>
+      <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="28">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="24">
         <v>4</v>
       </c>
-      <c r="K5" s="38"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="27"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1050,11 +1050,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="30"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1064,10 +1064,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="30">
         <v>4</v>
       </c>
-      <c r="K9" s="27">
+      <c r="K9" s="28">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1075,72 +1075,72 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="42"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="29" t="s">
+      <c r="G12" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1311,6 +1311,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -1327,34 +1355,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,123 +1396,123 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="54"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="52"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="46"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="54"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="20"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="28"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="28"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="29"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="43">
+      <c r="H5" s="51">
         <v>4</v>
       </c>
-      <c r="I5" s="44"/>
+      <c r="I5" s="52"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="33"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="53" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="45"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1575,13 +1575,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -1590,16 +1592,14 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -439,10 +439,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,18 +496,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -475,43 +508,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -523,16 +529,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,150 +884,150 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="29">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="24"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="39">
         <v>4</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="29"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="29">
         <v>4</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1050,11 +1050,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1064,10 +1064,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="41">
         <v>4</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="29">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1075,72 +1075,72 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="31" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="33"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="44"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="29"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1311,6 +1311,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="A10:A11"/>
@@ -1327,34 +1355,6 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,123 +1396,123 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="54"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="53"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="54"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="40"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="30"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="46">
         <v>4</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="53" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1575,6 +1575,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
@@ -1591,15 +1600,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Company-Calc" sheetId="3" r:id="rId3"/>
+    <sheet name="Person-Calc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>tax-system</t>
   </si>
@@ -175,13 +176,147 @@
   </si>
   <si>
     <t>decl-ndfl</t>
+  </si>
+  <si>
+    <t>Кварталы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trans-no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> face-yes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trans-yes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> face-yes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trans-no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> face-no</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">trans-yes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> face-no</t>
+    </r>
+  </si>
+  <si>
+    <t>Общая система</t>
+  </si>
+  <si>
+    <t>face-yes &amp;&amp; сзв-галочки все сняты, минус 500 р. - и Общая, и Упрощенка</t>
+  </si>
+  <si>
+    <t>Калькулятор</t>
+  </si>
+  <si>
+    <t>299р. за 1 квартал. Если 4-й кв-л и общая - 499р.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +358,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -256,7 +427,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -386,11 +557,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,6 +639,54 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -460,52 +708,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,15 +738,89 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -844,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,13 +1138,16 @@
     <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
     <col min="2" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
     <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="57" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -884,150 +1170,195 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="28"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="N1" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <v>4</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="40"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="N2" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="26"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="N3" s="59"/>
+      <c r="O3" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="74"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="24">
         <v>4</v>
       </c>
-      <c r="K5" s="40"/>
+      <c r="K5" s="25"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="N5" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="62">
+        <v>1499</v>
+      </c>
+      <c r="P5" s="62">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="29"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="28"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="N6" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="63">
+        <v>1999</v>
+      </c>
+      <c r="P6" s="60">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="30"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="N7" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="67"/>
+      <c r="P7" s="61"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="26"/>
+      <c r="E8" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1048,13 +1379,22 @@
       <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="32"/>
+      <c r="N8" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="O8" s="62">
+        <v>2499</v>
+      </c>
+      <c r="P8" s="62">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1064,102 +1404,147 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="30">
         <v>4</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="28">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="N9" s="66"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="34" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="44"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="33"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
+      <c r="N10" s="71"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="35"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="30"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="N11" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="74"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="35"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="P13" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N14" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="62">
+        <v>999</v>
+      </c>
+      <c r="P14" s="62">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="62">
+        <v>1499</v>
+      </c>
+      <c r="P15" s="62">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N16" s="56"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N17" s="56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>4</v>
       </c>
@@ -1167,7 +1552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>11</v>
       </c>
@@ -1175,7 +1560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
@@ -1191,7 +1576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -1199,7 +1584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
@@ -1207,7 +1592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>39</v>
       </c>
@@ -1215,7 +1600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>42</v>
       </c>
@@ -1223,13 +1608,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>20</v>
       </c>
@@ -1237,7 +1622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>19</v>
       </c>
@@ -1253,7 +1638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
@@ -1261,7 +1646,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>22</v>
       </c>
@@ -1310,7 +1695,44 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="53">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -1327,34 +1749,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1365,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,123 +1790,126 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="54"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="47"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="53"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="47"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="38"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="28"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="29"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="49">
         <v>4</v>
       </c>
-      <c r="I5" s="47"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="31" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="35"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="36"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="48" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="51" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1562,10 +1959,14 @@
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="83" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -1575,20 +1976,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1600,6 +1987,20 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1607,6 +2008,170 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="57" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="56" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="74"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="73"/>
+      <c r="B3" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="62">
+        <v>1499</v>
+      </c>
+      <c r="C4" s="62">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="63">
+        <v>1999</v>
+      </c>
+      <c r="C5" s="60">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="61"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="62">
+        <v>2499</v>
+      </c>
+      <c r="C7" s="62">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="71"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="74"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="62">
+        <v>999</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="62">
+        <v>1499</v>
+      </c>
+      <c r="C14" s="62">
+        <v>2499</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -395,7 +395,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +426,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -590,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -639,105 +651,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -748,33 +661,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -787,40 +679,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1129,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,8 +1179,8 @@
     <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="57" customWidth="1"/>
-    <col min="15" max="16" width="11.5703125" style="56" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="24" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1170,195 +1206,195 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="44"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="82" t="s">
+      <c r="N1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="54">
         <v>4</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="75" t="s">
+      <c r="N2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="77"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="59"/>
-      <c r="O3" s="74" t="s">
+      <c r="N3" s="37"/>
+      <c r="O3" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="74"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="38"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="70" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="70">
+      <c r="P4" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="64">
         <v>4</v>
       </c>
-      <c r="K5" s="25"/>
+      <c r="K5" s="65"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="58" t="s">
+      <c r="N5" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="89">
         <v>1499</v>
       </c>
-      <c r="P5" s="62">
+      <c r="P5" s="89">
         <v>2499</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="64" t="s">
+      <c r="N6" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="83">
         <v>1999</v>
       </c>
-      <c r="P6" s="60">
+      <c r="P6" s="84">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="29"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="61"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="87"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="54">
         <v>4</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="60"/>
+      <c r="E8" s="56" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1379,22 +1415,22 @@
       <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="58" t="s">
+      <c r="N8" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="62">
+      <c r="O8" s="89">
         <v>2499</v>
       </c>
-      <c r="P8" s="62">
+      <c r="P8" s="89">
         <v>3499</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="35"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1404,113 +1440,113 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="66">
         <v>4</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="54">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="56" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="33"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="71"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="29"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="78" t="s">
+      <c r="N11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="79"/>
-      <c r="P11" s="80"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="34" t="s">
+      <c r="G12" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="74" t="s">
+      <c r="N12" s="37"/>
+      <c r="O12" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="74"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="70" t="s">
+      <c r="G13" s="57"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="70">
+      <c r="P13" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="62">
+      <c r="O14" s="89">
         <v>999</v>
       </c>
-      <c r="P14" s="62">
+      <c r="P14" s="89">
         <v>1999</v>
       </c>
     </row>
@@ -1518,13 +1554,13 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="58" t="s">
+      <c r="N15" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="62">
+      <c r="O15" s="91">
         <v>1499</v>
       </c>
-      <c r="P15" s="62">
+      <c r="P15" s="91">
         <v>2499</v>
       </c>
     </row>
@@ -1533,14 +1569,14 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="56"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="23" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1696,15 +1732,34 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="A10:A11"/>
@@ -1721,34 +1776,15 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1790,126 +1826,126 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="44"/>
+      <c r="I1" s="53"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="77"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="46"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="47"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="77"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="38"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="28"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="54"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="29"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="55"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="49">
+      <c r="H5" s="78">
         <v>4</v>
       </c>
-      <c r="I5" s="50"/>
+      <c r="I5" s="79"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="34" t="s">
+      <c r="B6" s="60"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="51" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="70" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="55"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
@@ -1959,7 +1995,7 @@
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="33" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1976,6 +2012,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1987,20 +2037,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2017,124 +2053,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="57" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="56" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="56"/>
+    <col min="1" max="1" width="20.7109375" style="24" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" style="23" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="80"/>
+      <c r="B2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="74"/>
+      <c r="C2" s="38"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="26">
         <v>1499</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="26">
         <v>2499</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="43">
         <v>1999</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="45">
         <v>2999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="26">
         <v>2499</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C7" s="26">
         <v>3499</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
+      <c r="A9" s="31"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="74" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="74"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="70" t="s">
+      <c r="A12" s="81"/>
+      <c r="B12" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="62">
+      <c r="B13" s="26">
         <v>999</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="26">
         <v>1999</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="62">
+      <c r="B14" s="26">
         <v>1499</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="26">
         <v>2499</v>
       </c>
       <c r="D14"/>
@@ -2142,13 +2178,13 @@
       <c r="F14"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="23"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="23" t="s">
         <v>60</v>
       </c>
       <c r="D16"/>
@@ -2157,14 +2193,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -9,15 +9,13 @@
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
     <sheet name="Person" sheetId="2" r:id="rId2"/>
-    <sheet name="Company-Calc" sheetId="3" r:id="rId3"/>
-    <sheet name="Person-Calc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
   <si>
     <t>tax-system</t>
   </si>
@@ -439,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -580,15 +578,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -602,7 +591,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -658,21 +647,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,43 +660,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -743,52 +747,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,60 +814,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,195 +1165,195 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="58"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="42">
         <v>4</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="54" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="49"/>
+      <c r="K2" s="54"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38" t="s">
+      <c r="N3" s="62"/>
+      <c r="O3" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="38"/>
+      <c r="P3" s="63"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="37"/>
-      <c r="O4" s="30" t="s">
+      <c r="N4" s="62"/>
+      <c r="O4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="30">
+      <c r="P4" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="38">
         <v>4</v>
       </c>
-      <c r="K5" s="65"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="88" t="s">
+      <c r="N5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="33">
         <v>1499</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="33">
         <v>2499</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="54"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="42"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="83">
+      <c r="O6" s="68">
         <v>1999</v>
       </c>
-      <c r="P6" s="84">
+      <c r="P6" s="70">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="55"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="86"/>
-      <c r="P7" s="87"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="42">
         <v>4</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="56" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="48" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1415,22 +1374,22 @@
       <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="88" t="s">
+      <c r="N8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="33">
         <v>2499</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="33">
         <v>3499</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="57"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1440,113 +1399,113 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="44">
         <v>4</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="42">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="69"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="57"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="68"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="43"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="34" t="s">
+      <c r="N11" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="36"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="61"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="38" t="s">
+      <c r="N12" s="62"/>
+      <c r="O12" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="38"/>
+      <c r="P12" s="63"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="30" t="s">
+      <c r="G13" s="49"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N14" s="88" t="s">
+      <c r="N14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="33">
         <v>999</v>
       </c>
-      <c r="P14" s="89">
+      <c r="P14" s="33">
         <v>1999</v>
       </c>
     </row>
@@ -1554,13 +1513,13 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="90" t="s">
+      <c r="N15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="91">
+      <c r="O15" s="35">
         <v>1499</v>
       </c>
-      <c r="P15" s="91">
+      <c r="P15" s="35">
         <v>2499</v>
       </c>
     </row>
@@ -1732,6 +1691,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -1748,43 +1744,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1795,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,123 +1785,123 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="53"/>
+      <c r="I1" s="58"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="77"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="74"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="76"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="74"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="47"/>
+      <c r="I3" s="52"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="54"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="42"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="55"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="43"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="78">
+      <c r="H5" s="75">
         <v>4</v>
       </c>
-      <c r="I5" s="79"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="56" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="70" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="70"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="22"/>
@@ -1995,7 +1954,7 @@
       <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2012,20 +1971,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2037,184 +1982,22 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="24" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" style="23" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="23"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="38"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1499</v>
-      </c>
-      <c r="C4" s="26">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="43">
-        <v>1999</v>
-      </c>
-      <c r="C5" s="45">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="26">
-        <v>2499</v>
-      </c>
-      <c r="C7" s="26">
-        <v>3499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="26">
-        <v>999</v>
-      </c>
-      <c r="C13" s="26">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="26">
-        <v>1499</v>
-      </c>
-      <c r="C14" s="26">
-        <v>2499</v>
-      </c>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -301,13 +301,13 @@
     <t>Общая система</t>
   </si>
   <si>
-    <t>face-yes &amp;&amp; сзв-галочки все сняты, минус 500 р. - и Общая, и Упрощенка</t>
-  </si>
-  <si>
     <t>Калькулятор</t>
   </si>
   <si>
     <t>299р. за 1 квартал. Если 4-й кв-л и общая - 499р.</t>
+  </si>
+  <si>
+    <t>face-no || сзв-галочки все сняты =&gt; минус 500 р. - и Общая, и Упрощенка</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +436,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -591,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -678,10 +684,94 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,18 +780,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,76 +792,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,21 +822,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1122,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,96 +1175,96 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="58"/>
+      <c r="K1" s="55"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
+      <c r="N1" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="56">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="42" t="s">
+      <c r="D2" s="62"/>
+      <c r="E2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="51"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="53"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63" t="s">
+      <c r="N3" s="39"/>
+      <c r="O3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="63"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="49"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="39"/>
       <c r="O4" s="26" t="s">
         <v>54</v>
       </c>
@@ -1263,20 +1273,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="66">
         <v>4</v>
       </c>
-      <c r="K5" s="39"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1291,69 +1301,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="42"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="56"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="45">
         <v>1999</v>
       </c>
-      <c r="P6" s="70">
+      <c r="P6" s="47">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="43"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="57"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="71"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="56">
         <v>4</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="48" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="58" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1385,11 +1395,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1399,10 +1409,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="68">
         <v>4</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="56">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1413,84 +1423,84 @@
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="58" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="47"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="49"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="43"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="57"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="59" t="s">
+      <c r="N11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="63"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="N13" s="62"/>
+      <c r="G13" s="59"/>
+      <c r="N13" s="39"/>
       <c r="O13" s="26" t="s">
         <v>54</v>
       </c>
@@ -1530,16 +1540,21 @@
       </c>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>4</v>
       </c>
@@ -1547,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>11</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
@@ -1563,7 +1578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>49</v>
       </c>
@@ -1571,7 +1586,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
@@ -1587,7 +1602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>39</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>42</v>
       </c>
@@ -1603,13 +1618,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>19</v>
       </c>
@@ -1633,7 +1648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>28</v>
       </c>
@@ -1641,7 +1656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>22</v>
       </c>
@@ -1691,15 +1706,34 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="A10:A11"/>
@@ -1716,34 +1750,15 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1754,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,123 +1800,123 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="74"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="79"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="73"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="74"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="79"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="48" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="56"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="39"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="57"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="80">
         <v>4</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="40"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="41"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="72" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="22"/>
@@ -1955,12 +1970,12 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,6 +1986,20 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1982,20 +2011,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -684,43 +684,56 @@
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -744,52 +757,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -804,28 +826,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1134,7 +1134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -1175,96 +1175,96 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="55"/>
+      <c r="K1" s="60"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="41" t="s">
+      <c r="N1" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="44">
         <v>4</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="56" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="40" t="s">
+      <c r="N3" s="64"/>
+      <c r="O3" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="40"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="49"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="39"/>
+      <c r="N4" s="64"/>
       <c r="O4" s="26" t="s">
         <v>54</v>
       </c>
@@ -1273,20 +1273,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="66">
+      <c r="J5" s="40">
         <v>4</v>
       </c>
-      <c r="K5" s="67"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1301,69 +1301,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="56"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="44"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="70">
         <v>1999</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="72">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="57"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="46"/>
-      <c r="P7" s="48"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="44">
         <v>4</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="58" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="50" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1395,11 +1395,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1409,10 +1409,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="46">
         <v>4</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="44">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1423,84 +1423,84 @@
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="50" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="71"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="27"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="59"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="57"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="37"/>
-      <c r="P11" s="38"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="G12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40" t="s">
+      <c r="N12" s="64"/>
+      <c r="O12" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="40"/>
+      <c r="P12" s="65"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="N13" s="39"/>
+      <c r="G13" s="51"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="26" t="s">
         <v>54</v>
       </c>
@@ -1545,14 +1545,14 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="82" t="s">
+      <c r="N17" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
@@ -1706,6 +1706,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -1722,43 +1759,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1769,7 +1769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
@@ -1800,123 +1800,123 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="55"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="79"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="76"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="78"/>
+      <c r="I2" s="75"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="79"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="76"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="49"/>
+      <c r="I3" s="54"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="58" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="44"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="57"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="45"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="80">
+      <c r="H5" s="77">
         <v>4</v>
       </c>
-      <c r="I5" s="81"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="63"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="72" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="72"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="22"/>
@@ -1986,20 +1986,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2011,6 +1997,20 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>tax-system</t>
   </si>
@@ -309,12 +309,80 @@
   <si>
     <t>face-no || сзв-галочки все сняты =&gt; минус 500 р. - и Общая, и Упрощенка</t>
   </si>
+  <si>
+    <t>Форма в will-send</t>
+  </si>
+  <si>
+    <t>Название компании</t>
+  </si>
+  <si>
+    <t>ОКТМО</t>
+  </si>
+  <si>
+    <t>ИНН (10 знаков)</t>
+  </si>
+  <si>
+    <t>Тел</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Паспорт серия</t>
+  </si>
+  <si>
+    <t>Паспорт №</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>Кем выдан</t>
+  </si>
+  <si>
+    <t>Код подразделения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Количество работников </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если 4-й кв-л)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">СНИЛС директора </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если СЗВ)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,8 +460,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +518,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -597,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -646,7 +740,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -688,6 +781,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,6 +904,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,6 +920,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1134,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,8 +1262,8 @@
     <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="24" customWidth="1"/>
-    <col min="15" max="16" width="11.5703125" style="23" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" style="23" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1175,195 +1289,195 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="60"/>
+      <c r="K1" s="64"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="48">
         <v>4</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="44" t="s">
+      <c r="D2" s="46"/>
+      <c r="E2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="55" t="s">
+      <c r="J2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="56"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="65" t="s">
+      <c r="N3" s="68"/>
+      <c r="O3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="65"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="54" t="s">
+      <c r="J4" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="54"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="26" t="s">
+      <c r="N4" s="68"/>
+      <c r="O4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="44">
         <v>4</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="45"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>1499</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="32">
         <v>2499</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="50" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="44"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="48"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="70">
+      <c r="O6" s="74">
         <v>1999</v>
       </c>
-      <c r="P6" s="72">
+      <c r="P6" s="76">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="43"/>
-      <c r="K7" s="45"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="49"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="N7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="71"/>
-      <c r="P7" s="73"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="77"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="48">
         <v>4</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="50" t="s">
+      <c r="D8" s="46"/>
+      <c r="E8" s="54" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1384,22 +1498,22 @@
       <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="32" t="s">
+      <c r="N8" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="32">
         <v>2499</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="32">
         <v>3499</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1409,113 +1523,119 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="50">
         <v>4</v>
       </c>
-      <c r="K9" s="44">
+      <c r="K9" s="48">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="49"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="27"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="51"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="48"/>
-      <c r="K11" s="45"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="49"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="62"/>
-      <c r="P11" s="63"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="64"/>
-      <c r="O12" s="65" t="s">
+      <c r="N12" s="68"/>
+      <c r="O12" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="65"/>
+      <c r="P12" s="69"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="51"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="26" t="s">
+      <c r="G13" s="55"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N14" s="32" t="s">
+      <c r="I14" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="N14" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="32">
         <v>999</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="32">
         <v>1999</v>
       </c>
     </row>
@@ -1523,13 +1643,19 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="I15" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="40"/>
+      <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="34">
         <v>1499</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="34">
         <v>2499</v>
       </c>
     </row>
@@ -1538,21 +1664,33 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="23"/>
+      <c r="I16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="I17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
@@ -1561,6 +1699,12 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
+      <c r="I18" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -1569,6 +1713,12 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
+      <c r="I19" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1577,6 +1727,12 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
+      <c r="I20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -1585,6 +1741,12 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
+      <c r="I21" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1705,7 +1867,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="61">
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="O12:P12"/>
@@ -1759,6 +1921,14 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1770,7 +1940,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="G12" sqref="G12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,146 +1970,201 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="81"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="74" t="s">
+      <c r="H2" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="80"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="76"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="81"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="54"/>
+      <c r="I3" s="58"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="50" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="44"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="48"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="45"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="49"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="82">
         <v>4</v>
       </c>
-      <c r="I5" s="78"/>
+      <c r="I5" s="83"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="50" t="s">
+      <c r="B6" s="46"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="47"/>
+      <c r="G7" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="80" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86" t="s">
         <v>16</v>
       </c>
+      <c r="G8" s="78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="86"/>
+      <c r="G9" s="78" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="22"/>
+      <c r="G10" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
+      <c r="G11" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G13" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>6</v>
       </c>
+      <c r="G14" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>7</v>
       </c>
+      <c r="G15" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -1948,16 +2173,28 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G16" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="78"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G17" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1965,27 +2202,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="36">
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -1997,6 +2234,8 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -2011,6 +2250,15 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -781,6 +781,114 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -796,117 +904,24 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,21 +939,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,7 +1249,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,96 +1289,96 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="64"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="70" t="s">
+      <c r="N1" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="57">
         <v>4</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="48" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="52"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="73"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="62"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="68"/>
-      <c r="O3" s="69" t="s">
+      <c r="N3" s="40"/>
+      <c r="O3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="69"/>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="58"/>
+      <c r="K4" s="50"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="68"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="25" t="s">
         <v>54</v>
       </c>
@@ -1387,20 +1387,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="67">
         <v>4</v>
       </c>
-      <c r="K5" s="45"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1415,69 +1415,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="54" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="48"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="57"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="74">
+      <c r="O6" s="46">
         <v>1999</v>
       </c>
-      <c r="P6" s="76">
+      <c r="P6" s="48">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="49"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="77"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="57">
         <v>4</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="54" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="59" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1509,11 +1509,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1523,10 +1523,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="69">
         <v>4</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="57">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1537,84 +1537,84 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="59" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="55"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="49"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="39"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="68"/>
-      <c r="O12" s="69" t="s">
+      <c r="N12" s="40"/>
+      <c r="O12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="69"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="55"/>
-      <c r="N13" s="68"/>
+      <c r="G13" s="60"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1623,12 +1623,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
       <c r="N14" s="31" t="s">
         <v>11</v>
       </c>
@@ -1643,12 +1643,12 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
       <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
@@ -1664,12 +1664,12 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="38" t="s">
+      <c r="I16" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1677,12 +1677,12 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
       <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
@@ -1699,12 +1699,12 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -1713,12 +1713,12 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1727,12 +1727,12 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -1741,12 +1741,12 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1868,15 +1868,42 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D6:D7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="A10:A11"/>
@@ -1893,42 +1920,15 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1970,201 +1970,201 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="56"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="81"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="86"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="80"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="81"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="86"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="58"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="48"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="57"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="58"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="82">
+      <c r="H5" s="87">
         <v>4</v>
       </c>
-      <c r="I5" s="83"/>
+      <c r="I5" s="88"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="54" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="46"/>
+      <c r="E6" s="63"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="47"/>
-      <c r="G7" s="84" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="64"/>
+      <c r="G7" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86"/>
-      <c r="G9" s="78" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="78"/>
+      <c r="G9" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="78" t="s">
+      <c r="G10" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="G11" s="78" t="s">
+      <c r="G11" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="78" t="s">
+      <c r="G12" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="G13" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="78" t="s">
+      <c r="G14" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -2173,12 +2173,12 @@
       <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="78" t="s">
+      <c r="G16" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -2187,12 +2187,12 @@
       <c r="B17" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="78" t="s">
+      <c r="G17" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -2223,6 +2223,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E6:E7"/>
@@ -2236,29 +2259,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="G9:J9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/draft/тз.xlsx
+++ b/draft/тз.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="19155" windowHeight="9795" tabRatio="676" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Company" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="77">
   <si>
     <t>tax-system</t>
   </si>
@@ -331,21 +331,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>Паспорт серия</t>
-  </si>
-  <si>
-    <t>Паспорт №</t>
-  </si>
-  <si>
-    <t>Дата выдачи</t>
-  </si>
-  <si>
-    <t>Кем выдан</t>
-  </si>
-  <si>
-    <t>Код подразделения</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Количество работников </t>
     </r>
@@ -377,12 +362,92 @@
       <t>(если СЗВ)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Паспорт серия </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если общая и 4 кв-л)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Паспорт № </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если общая и 4 кв-л)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Дата выдачи </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если общая и 4 кв-л)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кем выдан </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если общая и 4 кв-л)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Код подразделения </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(если общая и 4 кв-л)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,15 +510,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="7" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -468,8 +524,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +609,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -691,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -758,7 +837,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -781,13 +860,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -939,6 +1019,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1248,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,96 +1372,96 @@
       <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="56"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="58">
         <v>4</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="57" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
       <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
       <c r="L3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="41"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
       <c r="I4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="40"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="25" t="s">
         <v>54</v>
       </c>
@@ -1387,20 +1470,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
       <c r="I5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="67">
+      <c r="J5" s="68">
         <v>4</v>
       </c>
-      <c r="K5" s="68"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="15" t="s">
         <v>44</v>
       </c>
@@ -1415,69 +1498,69 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="57"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N6" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="47">
         <v>1999</v>
       </c>
-      <c r="P6" s="48">
+      <c r="P6" s="49">
         <v>2999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
       <c r="I7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="58"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="59"/>
       <c r="L7" s="15" t="s">
         <v>39</v>
       </c>
       <c r="N7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="O7" s="47"/>
-      <c r="P7" s="49"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="50"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="58">
         <v>4</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="59" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="60" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -1509,11 +1592,11 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="11" t="s">
         <v>10</v>
       </c>
@@ -1523,10 +1606,10 @@
       <c r="I9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="70">
         <v>4</v>
       </c>
-      <c r="K9" s="57">
+      <c r="K9" s="58">
         <v>4</v>
       </c>
       <c r="L9" s="15" t="s">
@@ -1537,84 +1620,84 @@
       <c r="P9" s="27"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="60" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="70"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="15" t="s">
         <v>44</v>
       </c>
       <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="60"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="7"/>
       <c r="I11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="58"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="59"/>
       <c r="L11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41" t="s">
+      <c r="N12" s="41"/>
+      <c r="O12" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="P12" s="41"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="N13" s="40"/>
+      <c r="G13" s="61"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="25" t="s">
         <v>54</v>
       </c>
@@ -1623,12 +1706,12 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="77" t="s">
+      <c r="I14" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="78"/>
       <c r="N14" s="31" t="s">
         <v>11</v>
       </c>
@@ -1643,12 +1726,12 @@
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
+      <c r="I15" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="77"/>
       <c r="N15" s="33" t="s">
         <v>10</v>
       </c>
@@ -1664,12 +1747,12 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
+      <c r="I16" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
       <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1677,12 +1760,12 @@
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="73" t="s">
+      <c r="I17" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
       <c r="N17" s="35" t="s">
         <v>62</v>
       </c>
@@ -1699,12 +1782,12 @@
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="73" t="s">
+      <c r="I18" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
@@ -1713,12 +1796,12 @@
       <c r="B19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="73" t="s">
+      <c r="I19" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -1727,12 +1810,12 @@
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="73" t="s">
+      <c r="I20" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
@@ -1741,12 +1824,12 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="73" t="s">
+      <c r="I21" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -1939,8 +2022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:J12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1970,237 +2053,214 @@
       <c r="G1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="56"/>
+      <c r="I1" s="57"/>
       <c r="J1" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="86"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="87"/>
       <c r="G2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="87"/>
       <c r="G3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="50"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="58"/>
       <c r="G4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
       <c r="J4" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="59"/>
       <c r="G5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="87">
+      <c r="H5" s="88">
         <v>4</v>
       </c>
-      <c r="I5" s="88"/>
+      <c r="I5" s="89"/>
       <c r="J5" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="64"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="80"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="64"/>
-      <c r="G7" s="89" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="65"/>
+      <c r="G7" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="78" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="78"/>
-      <c r="G9" s="82" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="79"/>
+      <c r="G9" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11"/>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="82" t="s">
+      <c r="G12" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
+      <c r="A13" s="2"/>
+      <c r="G13" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
+      <c r="A14" s="37"/>
+      <c r="G14" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
+      <c r="A15" s="37"/>
+      <c r="G15" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="82" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
+      <c r="A16" s="8"/>
+      <c r="G16" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
+      <c r="A17" s="2"/>
+      <c r="G17" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
